--- a/question_select/115_unselect_question.xlsx
+++ b/question_select/115_unselect_question.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\question_select\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E763093A-1665-445C-8311-469203C2CC70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87D8590-492A-4B88-AB0F-3E32C10E22AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
